--- a/data/implants/implants_stock.xlsx
+++ b/data/implants/implants_stock.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\excel_test\data\implants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\implants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA520E6B-C033-41B7-8ACF-DB3E7361F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416FC5D7-722F-45CB-8F14-AFE56AC6FBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -340,13 +340,14 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/implants/implants_stock.xlsx
+++ b/data/implants/implants_stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\implants\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\implants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416FC5D7-722F-45CB-8F14-AFE56AC6FBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBC344-A6EB-4341-90C1-3997B45B114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,89 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>51001V2</t>
+  </si>
+  <si>
+    <t>51002V2</t>
+  </si>
+  <si>
+    <t>51003V2</t>
+  </si>
+  <si>
+    <t>51004V2</t>
+  </si>
+  <si>
+    <t>51005V2</t>
+  </si>
+  <si>
+    <t>51006V2</t>
+  </si>
+  <si>
+    <t>51007V2</t>
+  </si>
+  <si>
+    <t>51008V2</t>
+  </si>
+  <si>
+    <t>51009V2</t>
+  </si>
+  <si>
+    <t>51010V2</t>
+  </si>
+  <si>
+    <t>51011V2</t>
+  </si>
+  <si>
+    <t>51012V2</t>
+  </si>
+  <si>
+    <t>51013V2</t>
+  </si>
+  <si>
+    <t>51014V2</t>
+  </si>
+  <si>
+    <t>51016V2</t>
+  </si>
+  <si>
+    <t>51017V2</t>
+  </si>
+  <si>
+    <t>51018V2</t>
+  </si>
+  <si>
+    <t>51019V2</t>
+  </si>
+  <si>
+    <t>51020V2</t>
+  </si>
+  <si>
+    <t>51021V2</t>
+  </si>
+  <si>
+    <t>51022V2</t>
+  </si>
+  <si>
+    <t>51023V2</t>
+  </si>
+  <si>
+    <t>51024V2</t>
+  </si>
+  <si>
+    <t>51025V2</t>
+  </si>
+  <si>
+    <t>51026V2</t>
+  </si>
+  <si>
+    <t>51027V2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -337,21 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>51001</v>
       </c>
       <c r="B1">
@@ -359,7 +443,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>51003</v>
       </c>
       <c r="B2">
@@ -367,7 +451,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>51005</v>
       </c>
       <c r="B3">
@@ -375,7 +459,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>51007</v>
       </c>
       <c r="B4">
@@ -383,7 +467,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>51008</v>
       </c>
       <c r="B5">
@@ -391,7 +475,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>51010</v>
       </c>
       <c r="B6">
@@ -399,7 +483,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>51011</v>
       </c>
       <c r="B7">
@@ -407,7 +491,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>51012</v>
       </c>
       <c r="B8">
@@ -415,7 +499,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>51014</v>
       </c>
       <c r="B9">
@@ -423,7 +507,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>51016</v>
       </c>
       <c r="B10">
@@ -431,7 +515,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>51018</v>
       </c>
       <c r="B11">
@@ -439,7 +523,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>51022</v>
       </c>
       <c r="B12">
@@ -447,7 +531,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>51027</v>
       </c>
       <c r="B13">
@@ -455,7 +539,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>51032</v>
       </c>
       <c r="B14">
@@ -463,7 +547,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>42102</v>
       </c>
       <c r="B15">
@@ -471,7 +555,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>42100</v>
       </c>
       <c r="B16">
@@ -479,7 +563,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>62000</v>
       </c>
       <c r="B17">
@@ -487,7 +571,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>62001</v>
       </c>
       <c r="B18">
@@ -495,7 +579,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>50003</v>
       </c>
       <c r="B19">
@@ -503,7 +587,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>50002</v>
       </c>
       <c r="B20">
@@ -511,7 +595,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>42003</v>
       </c>
       <c r="B21">
@@ -519,14 +603,221 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>42000</v>
       </c>
       <c r="B22">
         <v>15550</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/implants/implants_stock.xlsx
+++ b/data/implants/implants_stock.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\implants\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBC344-A6EB-4341-90C1-3997B45B114C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -108,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,15 +418,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,391 +434,278 @@
   <cols>
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>51001</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>1300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>51003</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>51005</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1440</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>51007</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>51008</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1440</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>51010</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>51011</v>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1400</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>51012</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>51014</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>51016</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>51018</v>
-      </c>
-      <c r="B11">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>51022</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>51027</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>51032</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42102</v>
-      </c>
-      <c r="B15">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42100</v>
-      </c>
-      <c r="B16">
-        <v>15550</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>62000</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>62001</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>50003</v>
+      <c r="A19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>5200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>50002</v>
+      <c r="A20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>15550</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42003</v>
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>5200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42000</v>
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>15550</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
+      <c r="A27" s="1">
+        <v>42100</v>
       </c>
       <c r="B27">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B28">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42102</v>
+      </c>
+      <c r="B29">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42003</v>
+      </c>
+      <c r="B30">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>62001</v>
+      </c>
+      <c r="B31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>50003</v>
+      </c>
+      <c r="B32">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>50002</v>
+      </c>
+      <c r="B33">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>51005</v>
+      </c>
+      <c r="B34">
         <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
